--- a/ATUReports/Results/Run_6/(ATUReports) Run_6.xlsx
+++ b/ATUReports/Results/Run_6/(ATUReports) Run_6.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="338">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -73,703 +73,970 @@
     <t>1</t>
   </si>
   <si>
+    <t>11 Sec</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>ATU_TC_1</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser</t>
+  </si>
+  <si>
+    <t>251 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>109 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>101 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>42 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_5</t>
+  </si>
+  <si>
+    <t>cNetLogoutScenario</t>
+  </si>
+  <si>
+    <t>44 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>79 Milli Sec</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ATU_TC_7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>62 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>118 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>83 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_10</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Input Value</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Line No</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Passing URL in to browser</t>
+  </si>
+  <si>
+    <t>https://cnetglobaldemo1.service-now.com/</t>
+  </si>
+  <si>
+    <t>URL Should be passed in to browser</t>
+  </si>
+  <si>
+    <t>URL Launched successfully</t>
+  </si>
+  <si>
+    <t>9 Sec</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>Swicthing to Main Frame</t>
+  </si>
+  <si>
+    <t>gsft_main</t>
+  </si>
+  <si>
+    <t>Main Frame should be activited</t>
+  </si>
+  <si>
+    <t>Mainframe actitivited</t>
+  </si>
+  <si>
+    <t>156 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Username</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username should be clicked</t>
+  </si>
+  <si>
+    <t>UserName clicked successfully</t>
+  </si>
+  <si>
+    <t>291 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to username</t>
+  </si>
+  <si>
+    <t>maneeshn</t>
+  </si>
+  <si>
+    <t>Username should be entered</t>
+  </si>
+  <si>
+    <t>Username should be passed successfully</t>
+  </si>
+  <si>
+    <t>214 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Password</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>Password should be clicked</t>
+  </si>
+  <si>
+    <t>Password clicked successfully</t>
+  </si>
+  <si>
+    <t>243 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to Password</t>
+  </si>
+  <si>
+    <t>Maneeshnama@6468</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Password should be passed successfully</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>sysverb_login</t>
+  </si>
+  <si>
+    <t>Login button should be clicked</t>
+  </si>
+  <si>
+    <t>Login button clicked succesfully</t>
+  </si>
+  <si>
+    <t>4 Sec</t>
+  </si>
+  <si>
+    <t>Go To TestSuite Sheet</t>
+  </si>
+  <si>
+    <t>2 Sec</t>
+  </si>
+  <si>
+    <t>Passed AIMS in FilterNavigator</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Find AIMS in search Navigator</t>
+  </si>
+  <si>
+    <t>Search Successful</t>
+  </si>
+  <si>
+    <t>7 Sec</t>
+  </si>
+  <si>
+    <t>clicked on launch Application</t>
+  </si>
+  <si>
+    <t>330b36b5134e7600aee43d7ed144b09a</t>
+  </si>
+  <si>
+    <t>Launch AIMS Application</t>
+  </si>
+  <si>
+    <t>Clicked Successful</t>
+  </si>
+  <si>
+    <t>3 Sec</t>
+  </si>
+  <si>
+    <t>104 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked the UpdateVM</t>
+  </si>
+  <si>
+    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
+  </si>
+  <si>
+    <t>Select UpdateVM from AIMS</t>
+  </si>
+  <si>
+    <t>Successfully Selected</t>
+  </si>
+  <si>
     <t>8 Sec</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>ATU_TC_1</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
-  </si>
-  <si>
-    <t>6078 Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_2</t>
-  </si>
-  <si>
-    <t>cNetLogoutScenario</t>
-  </si>
-  <si>
-    <t>29 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_3</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV59</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>153 Milli Sec</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>ATU_TC_4</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV91</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Type of ServerOperation Field Choosen</t>
+  </si>
+  <si>
+    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
+  </si>
+  <si>
+    <t>Select Update Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerOperation field was successfully selected </t>
+  </si>
+  <si>
+    <t>Selected Project lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>Hit the Project LookupField</t>
+  </si>
+  <si>
+    <t>Successfully selected</t>
+  </si>
+  <si>
+    <t>553 Milli Sec</t>
+  </si>
+  <si>
+    <t>1 Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryDataCenter lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryDataCenter LookupField</t>
+  </si>
+  <si>
+    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
+  </si>
+  <si>
+    <t>402 Milli Sec</t>
+  </si>
+  <si>
+    <t>Dallas Was Selected</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Choose one PrimarydataCenter</t>
+  </si>
+  <si>
+    <t>188 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryCloudPlatform lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryCloudPlatform LookupField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
+  </si>
+  <si>
+    <t>926 Milli Sec</t>
+  </si>
+  <si>
+    <t>Choosen PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Choose PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>209 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected cluster field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
+  </si>
+  <si>
+    <t>click on Cluster Lookup field</t>
+  </si>
+  <si>
+    <t>Successfully hit the field</t>
+  </si>
+  <si>
+    <t>Selected OpenStack-Aims</t>
+  </si>
+  <si>
+    <t>AWS-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>Select one Cluster</t>
+  </si>
+  <si>
+    <t>Cluster select Successful</t>
+  </si>
+  <si>
+    <t>131 Milli Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Server field </t>
+  </si>
+  <si>
+    <t>//a[@id='lookup.IO:92e0e0570f2d7200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>click on Server Lookup field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected DEV-LNX-APACHE-63 </t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-63</t>
+  </si>
+  <si>
+    <t>Select One Server</t>
+  </si>
+  <si>
+    <t>Server Select Successful</t>
+  </si>
+  <si>
+    <t>150 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked User Menu</t>
+  </si>
+  <si>
+    <t>IO:3987d81f0fe97200d6254c6be1050ecc_unlock</t>
+  </si>
+  <si>
+    <t>Select An User</t>
+  </si>
+  <si>
+    <t>Select Successful</t>
+  </si>
+  <si>
+    <t>490 Milli Sec</t>
+  </si>
+  <si>
+    <t>lookup.IO:3987d81f0fe97200d6254c6be1050ecc</t>
+  </si>
+  <si>
+    <t>897 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed The RequestNumber</t>
+  </si>
+  <si>
+    <t>//span[@id='sys_user_hide_search']/div/div/input</t>
+  </si>
+  <si>
+    <t>Search for Requests</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Clicked RequestNumber</t>
+  </si>
+  <si>
+    <t>//td[3]/a</t>
+  </si>
+  <si>
+    <t>Click on request Number</t>
+  </si>
+  <si>
+    <t>136 Milli Sec</t>
+  </si>
+  <si>
+    <t>IO:3987d81f0fe97200d6254c6be1050ecc_lock</t>
+  </si>
+  <si>
+    <t>298 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected VcenterHost</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select VcenterHost</t>
+  </si>
+  <si>
+    <t>766 Milli Sec</t>
+  </si>
+  <si>
+    <t>33 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked OrderNow</t>
+  </si>
+  <si>
+    <t>oi_order_now_button</t>
+  </si>
+  <si>
+    <t>Place Your order</t>
+  </si>
+  <si>
+    <t>91 Milli Sec</t>
+  </si>
+  <si>
+    <t>55 Milli Sec</t>
+  </si>
+  <si>
+    <t>205 Milli Sec</t>
+  </si>
+  <si>
+    <t>96 Milli Sec</t>
+  </si>
+  <si>
+    <t>user_info_dropdown</t>
+  </si>
+  <si>
+    <t>211 Milli Sec</t>
+  </si>
+  <si>
+    <t>Select ImpersonateUser</t>
+  </si>
+  <si>
+    <t>Impersonate User</t>
+  </si>
+  <si>
+    <t>Choose An User</t>
+  </si>
+  <si>
+    <t>User Select Successful</t>
+  </si>
+  <si>
+    <t>231 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked Search Bar</t>
+  </si>
+  <si>
+    <t>.//*[@id='s2id_autogen1']/a/span[2]/b</t>
+  </si>
+  <si>
+    <t>Slect Search for User</t>
+  </si>
+  <si>
+    <t>225 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed UserName</t>
+  </si>
+  <si>
+    <t>Maneesh Nama</t>
+  </si>
+  <si>
+    <t>Provide UserName</t>
+  </si>
+  <si>
+    <t>Successfully Provided</t>
+  </si>
+  <si>
+    <t>457 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked SearchLabel</t>
+  </si>
+  <si>
+    <t>select2-result-label</t>
+  </si>
+  <si>
+    <t>Click search for user</t>
+  </si>
+  <si>
+    <t>398 Milli Sec</t>
+  </si>
+  <si>
+    <t>90 Milli Sec</t>
+  </si>
+  <si>
+    <t>72 Milli Sec</t>
+  </si>
+  <si>
+    <t>passed the requests in FilterNavigator</t>
+  </si>
+  <si>
+    <t>Search for requests</t>
+  </si>
+  <si>
+    <t>Succesfully passed</t>
+  </si>
+  <si>
+    <t>Clicked on Service catalog Requests</t>
+  </si>
+  <si>
+    <t>17e0b4990a04bf15013f9590408c419a</t>
+  </si>
+  <si>
+    <t>Click on ServiceCatalog Requests</t>
+  </si>
+  <si>
+    <t>6 Sec</t>
+  </si>
+  <si>
+    <t>107 Milli Sec</t>
+  </si>
+  <si>
+    <t>//span[@id='sc_request_hide_search']/div/div/input</t>
+  </si>
+  <si>
+    <t>380 Milli Sec</t>
+  </si>
+  <si>
+    <t>REQ0011515</t>
+  </si>
+  <si>
+    <t>32 Sec</t>
+  </si>
+  <si>
+    <t>179 Milli Sec</t>
+  </si>
+  <si>
+    <t>60 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicking on Request Number Which contains RITM after replacing REQ to RITM</t>
+  </si>
+  <si>
+    <t>RITM</t>
+  </si>
+  <si>
+    <t>Replace ReqNum</t>
+  </si>
+  <si>
+    <t>23 Sec</t>
+  </si>
+  <si>
+    <t>100 Milli Sec</t>
+  </si>
+  <si>
+    <t>Changed request to approve</t>
+  </si>
+  <si>
+    <t>sc_req_item.approval</t>
+  </si>
+  <si>
+    <t>aprrove status</t>
+  </si>
+  <si>
+    <t>aproved successfully</t>
+  </si>
+  <si>
+    <t>Updated form</t>
+  </si>
+  <si>
+    <t>sysverb_update</t>
+  </si>
+  <si>
+    <t>click update button</t>
+  </si>
+  <si>
+    <t>Successfull</t>
+  </si>
+  <si>
+    <t>97 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked on approval tab on RITM</t>
+  </si>
+  <si>
+    <t>.//*[@id='tabs2_list']/span[3]/span</t>
+  </si>
+  <si>
+    <t>Manager Approval</t>
+  </si>
+  <si>
+    <t>921 Milli Sec</t>
+  </si>
+  <si>
+    <t>59 Milli Sec</t>
+  </si>
+  <si>
+    <t>12 Sec</t>
+  </si>
+  <si>
+    <t>58 Milli Sec</t>
+  </si>
+  <si>
+    <t>sysapproval_approver.state</t>
+  </si>
+  <si>
+    <t>//form[@id='sysapproval_approver.do']/div/button</t>
+  </si>
+  <si>
+    <t>93 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked on Workflow in RITM Form</t>
+  </si>
+  <si>
+    <t>f590dc04c0a8016400eccedd5249fdb2</t>
+  </si>
+  <si>
+    <t>Show the workflow</t>
+  </si>
+  <si>
+    <t>Workflow clicked Successful</t>
+  </si>
+  <si>
+    <t>956 Milli Sec</t>
+  </si>
+  <si>
+    <t>62 Sec</t>
+  </si>
+  <si>
+    <t>passed cmdb server list in filternavigator</t>
+  </si>
+  <si>
+    <t>cmdb_ci_server.list</t>
+  </si>
+  <si>
+    <t>pass cmdb server table in search navigator</t>
+  </si>
+  <si>
+    <t>Successfully passed and entered</t>
+  </si>
+  <si>
+    <t>5 Sec</t>
+  </si>
+  <si>
+    <t>262 Milli Sec</t>
+  </si>
+  <si>
+    <t>74 Milli Sec</t>
+  </si>
+  <si>
+    <t>333 Milli Sec</t>
+  </si>
+  <si>
+    <t>884 Milli Sec</t>
+  </si>
+  <si>
+    <t>126 Milli Sec</t>
+  </si>
+  <si>
+    <t>103 Milli Sec</t>
+  </si>
+  <si>
+    <t>731 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-59</t>
+  </si>
+  <si>
+    <t>432 Milli Sec</t>
+  </si>
+  <si>
+    <t>157 Milli Sec</t>
+  </si>
+  <si>
+    <t>252 Milli Sec</t>
+  </si>
+  <si>
+    <t>691 Milli Sec</t>
+  </si>
+  <si>
+    <t>39 Milli Sec</t>
+  </si>
+  <si>
+    <t>71 Milli Sec</t>
+  </si>
+  <si>
+    <t>31 Milli Sec</t>
+  </si>
+  <si>
+    <t>199 Milli Sec</t>
+  </si>
+  <si>
+    <t>94 Milli Sec</t>
+  </si>
+  <si>
+    <t>196 Milli Sec</t>
+  </si>
+  <si>
+    <t>273 Milli Sec</t>
+  </si>
+  <si>
+    <t>295 Milli Sec</t>
+  </si>
+  <si>
+    <t>387 Milli Sec</t>
+  </si>
+  <si>
+    <t>35 Milli Sec</t>
+  </si>
+  <si>
+    <t>110 Milli Sec</t>
+  </si>
+  <si>
+    <t>394 Milli Sec</t>
+  </si>
+  <si>
+    <t>REQ0011516</t>
+  </si>
+  <si>
+    <t>41 Milli Sec</t>
+  </si>
+  <si>
+    <t>84 Milli Sec</t>
+  </si>
+  <si>
+    <t>980 Milli Sec</t>
+  </si>
+  <si>
+    <t>81 Milli Sec</t>
+  </si>
+  <si>
+    <t>736 Milli Sec</t>
+  </si>
+  <si>
+    <t>117 Milli Sec</t>
+  </si>
+  <si>
+    <t>102 Milli Sec</t>
   </si>
   <si>
     <t>86 Milli Sec</t>
   </si>
   <si>
-    <t>ATU_TC_5</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV13</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>79 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_6</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV83</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>89 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_7</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV84</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>522 Milli Sec</t>
+  </si>
+  <si>
+    <t>616 Milli Sec</t>
+  </si>
+  <si>
+    <t>128 Milli Sec</t>
+  </si>
+  <si>
+    <t>693 Milli Sec</t>
+  </si>
+  <si>
+    <t>149 Milli Sec</t>
+  </si>
+  <si>
+    <t>680 Milli Sec</t>
+  </si>
+  <si>
+    <t>962 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-91</t>
+  </si>
+  <si>
+    <t>155 Milli Sec</t>
+  </si>
+  <si>
+    <t>514 Milli Sec</t>
+  </si>
+  <si>
+    <t>687 Milli Sec</t>
+  </si>
+  <si>
+    <t>146 Milli Sec</t>
+  </si>
+  <si>
+    <t>272 Milli Sec</t>
+  </si>
+  <si>
+    <t>814 Milli Sec</t>
+  </si>
+  <si>
+    <t>37 Milli Sec</t>
+  </si>
+  <si>
+    <t>70 Milli Sec</t>
+  </si>
+  <si>
+    <t>46 Milli Sec</t>
+  </si>
+  <si>
+    <t>195 Milli Sec</t>
+  </si>
+  <si>
+    <t>233 Milli Sec</t>
+  </si>
+  <si>
+    <t>268 Milli Sec</t>
+  </si>
+  <si>
+    <t>183 Milli Sec</t>
+  </si>
+  <si>
+    <t>370 Milli Sec</t>
+  </si>
+  <si>
+    <t>456 Milli Sec</t>
+  </si>
+  <si>
+    <t>68 Milli Sec</t>
   </si>
   <si>
     <t>92 Milli Sec</t>
   </si>
   <si>
-    <t>ATU_TC_8</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>54 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_9</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>53 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_10</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Input Value</t>
-  </si>
-  <si>
-    <t>Expected value</t>
-  </si>
-  <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Line No</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Passing URL in to browser</t>
-  </si>
-  <si>
-    <t>https://cnetglobaldemo1.service-now.com/</t>
-  </si>
-  <si>
-    <t>URL Should be passed in to browser</t>
-  </si>
-  <si>
-    <t>URL Launched successfully</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>Swicthing to Main Frame</t>
-  </si>
-  <si>
-    <t>gsft_main</t>
-  </si>
-  <si>
-    <t>Main Frame should be activited</t>
-  </si>
-  <si>
-    <t>Mainframe actitivited</t>
-  </si>
-  <si>
-    <t>163 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username should be clicked</t>
-  </si>
-  <si>
-    <t>UserName clicked successfully</t>
-  </si>
-  <si>
-    <t>234 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to username</t>
-  </si>
-  <si>
-    <t>maneeshn</t>
-  </si>
-  <si>
-    <t>Username should be entered</t>
-  </si>
-  <si>
-    <t>Username should be passed successfully</t>
-  </si>
-  <si>
-    <t>166 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Password</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>Password should be clicked</t>
-  </si>
-  <si>
-    <t>Password clicked successfully</t>
-  </si>
-  <si>
-    <t>204 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to Password</t>
-  </si>
-  <si>
-    <t>Maneeshnama@6468</t>
-  </si>
-  <si>
-    <t>Password should be entered</t>
-  </si>
-  <si>
-    <t>Password should be passed successfully</t>
-  </si>
-  <si>
-    <t>276 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>sysverb_login</t>
-  </si>
-  <si>
-    <t>Login button should be clicked</t>
-  </si>
-  <si>
-    <t>Login button clicked succesfully</t>
-  </si>
-  <si>
-    <t>3 Sec</t>
-  </si>
-  <si>
-    <t>Go To TestSuite Sheet</t>
-  </si>
-  <si>
-    <t>2 Sec</t>
-  </si>
-  <si>
-    <t>Passed AIMS in FilterNavigator</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Find AIMS in search Navigator</t>
-  </si>
-  <si>
-    <t>Search Successful</t>
-  </si>
-  <si>
-    <t>4 Sec</t>
-  </si>
-  <si>
-    <t>clicked on launch Application</t>
-  </si>
-  <si>
-    <t>330b36b5134e7600aee43d7ed144b09a</t>
-  </si>
-  <si>
-    <t>Launch AIMS Application</t>
-  </si>
-  <si>
-    <t>Clicked Successful</t>
-  </si>
-  <si>
-    <t>107 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked the UpdateVM</t>
-  </si>
-  <si>
-    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
-  </si>
-  <si>
-    <t>Select UpdateVM from AIMS</t>
-  </si>
-  <si>
-    <t>Successfully Selected</t>
-  </si>
-  <si>
-    <t>Type of ServerOperation Field Choosen</t>
-  </si>
-  <si>
-    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
-  </si>
-  <si>
-    <t>Select Update Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServerOperation field was successfully selected </t>
-  </si>
-  <si>
-    <t>5 Sec</t>
-  </si>
-  <si>
-    <t>Selected Project lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
-  </si>
-  <si>
-    <t>Hit the Project LookupField</t>
-  </si>
-  <si>
-    <t>Successfully selected</t>
-  </si>
-  <si>
-    <t>365 Milli Sec</t>
-  </si>
-  <si>
-    <t>1 Sec</t>
-  </si>
-  <si>
-    <t>Selected PrimaryDataCenter lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
-  </si>
-  <si>
-    <t>Hit the PrimaryDataCenter LookupField</t>
-  </si>
-  <si>
-    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
-  </si>
-  <si>
-    <t>330 Milli Sec</t>
-  </si>
-  <si>
-    <t>Dallas Was Selected</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Choose one PrimarydataCenter</t>
-  </si>
-  <si>
-    <t>97 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected PrimaryCloudPlatform lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
-  </si>
-  <si>
-    <t>Hit the PrimaryCloudPlatform LookupField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
-  </si>
-  <si>
-    <t>Choosen PrimaryCloud Field</t>
-  </si>
-  <si>
-    <t>VMWare</t>
-  </si>
-  <si>
-    <t>Choose PrimaryCloud Field</t>
-  </si>
-  <si>
-    <t>176 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected VcenterHost</t>
-  </si>
-  <si>
-    <t>192.168.20.85</t>
-  </si>
-  <si>
-    <t>Select VcenterHost</t>
-  </si>
-  <si>
-    <t>Select Successful</t>
-  </si>
-  <si>
-    <t>293 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected ESXIHOST</t>
-  </si>
-  <si>
-    <t>192.168.10.227</t>
-  </si>
-  <si>
-    <t>Select ESXIHOST</t>
-  </si>
-  <si>
-    <t>417 Milli Sec</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>320 Milli Sec</t>
-  </si>
-  <si>
-    <t>67 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected cluster field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
-  </si>
-  <si>
-    <t>click on Cluster Lookup field</t>
-  </si>
-  <si>
-    <t>Successfully hit the field</t>
-  </si>
-  <si>
-    <t>Selected OpenStack-Aims</t>
-  </si>
-  <si>
-    <t>VMWare-AIMS-CNET-01</t>
-  </si>
-  <si>
-    <t>Select one Cluster</t>
-  </si>
-  <si>
-    <t>Cluster select Successful</t>
-  </si>
-  <si>
-    <t>109 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked OrderNow</t>
-  </si>
-  <si>
-    <t>oi_order_now_button</t>
-  </si>
-  <si>
-    <t>Place Your order</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>59 Milli Sec</t>
-  </si>
-  <si>
-    <t>60 Milli Sec</t>
-  </si>
-  <si>
-    <t>231 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked User Menu</t>
-  </si>
-  <si>
-    <t>user_info_dropdown</t>
-  </si>
-  <si>
-    <t>Select An User</t>
-  </si>
-  <si>
-    <t>161 Milli Sec</t>
-  </si>
-  <si>
-    <t>Select ImpersonateUser</t>
-  </si>
-  <si>
-    <t>Impersonate User</t>
-  </si>
-  <si>
-    <t>Choose An User</t>
-  </si>
-  <si>
-    <t>User Select Successful</t>
-  </si>
-  <si>
-    <t>178 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked Search Bar</t>
-  </si>
-  <si>
-    <t>.//*[@id='s2id_autogen1']/a/span[2]/b</t>
-  </si>
-  <si>
-    <t>Slect Search for User</t>
-  </si>
-  <si>
-    <t>219 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passed UserName</t>
-  </si>
-  <si>
-    <t>Maneesh Nama</t>
-  </si>
-  <si>
-    <t>Provide UserName</t>
-  </si>
-  <si>
-    <t>Successfully Provided</t>
-  </si>
-  <si>
-    <t>383 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked SearchLabel</t>
-  </si>
-  <si>
-    <t>select2-result-label</t>
-  </si>
-  <si>
-    <t>Click search for user</t>
+    <t>396 Milli Sec</t>
+  </si>
+  <si>
+    <t>REQ0011517</t>
+  </si>
+  <si>
+    <t>78 Milli Sec</t>
+  </si>
+  <si>
+    <t>38 Milli Sec</t>
+  </si>
+  <si>
+    <t>64 Milli Sec</t>
+  </si>
+  <si>
+    <t>781 Milli Sec</t>
+  </si>
+  <si>
+    <t>839 Milli Sec</t>
+  </si>
+  <si>
+    <t>47 Milli Sec</t>
+  </si>
+  <si>
+    <t>870 Milli Sec</t>
+  </si>
+  <si>
+    <t>401 Milli Sec</t>
+  </si>
+  <si>
+    <t>256 Milli Sec</t>
+  </si>
+  <si>
+    <t>82 Milli Sec</t>
+  </si>
+  <si>
+    <t>788 Milli Sec</t>
+  </si>
+  <si>
+    <t>555 Milli Sec</t>
+  </si>
+  <si>
+    <t>114 Milli Sec</t>
+  </si>
+  <si>
+    <t>108 Milli Sec</t>
+  </si>
+  <si>
+    <t>824 Milli Sec</t>
+  </si>
+  <si>
+    <t>95 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-GRAPAHANA-13</t>
+  </si>
+  <si>
+    <t>491 Milli Sec</t>
+  </si>
+  <si>
+    <t>785 Milli Sec</t>
+  </si>
+  <si>
+    <t>265 Milli Sec</t>
   </si>
   <si>
     <t>332 Milli Sec</t>
   </si>
   <si>
-    <t>48 Milli Sec</t>
-  </si>
-  <si>
-    <t>31 Milli Sec</t>
-  </si>
-  <si>
-    <t>passed the requests in FilterNavigator</t>
-  </si>
-  <si>
-    <t>Search for requests</t>
-  </si>
-  <si>
-    <t>Succesfully passed</t>
-  </si>
-  <si>
-    <t>Clicked on Service catalog Requests</t>
-  </si>
-  <si>
-    <t>17e0b4990a04bf15013f9590408c419a</t>
-  </si>
-  <si>
-    <t>Click on ServiceCatalog Requests</t>
-  </si>
-  <si>
-    <t>104 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passed The RequestNumber</t>
-  </si>
-  <si>
-    <t>//span[@id='sc_request_hide_search']/div/div/input</t>
-  </si>
-  <si>
-    <t>Search for Requests</t>
-  </si>
-  <si>
-    <t>379 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked RequestNumber</t>
-  </si>
-  <si>
-    <t>REQ0011370</t>
-  </si>
-  <si>
-    <t>Click on request Number</t>
-  </si>
-  <si>
-    <t>131 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicking on Request Number Which contains RITM after replacing REQ to RITM</t>
-  </si>
-  <si>
-    <t>RITM</t>
-  </si>
-  <si>
-    <t>Replace ReqNum</t>
-  </si>
-  <si>
-    <t>6 Sec</t>
-  </si>
-  <si>
-    <t>84 Milli Sec</t>
-  </si>
-  <si>
-    <t>Changed request to approve</t>
-  </si>
-  <si>
-    <t>sc_req_item.approval</t>
-  </si>
-  <si>
-    <t>aprrove status</t>
-  </si>
-  <si>
-    <t>aproved successfully</t>
-  </si>
-  <si>
-    <t>819 Milli Sec</t>
-  </si>
-  <si>
-    <t>Updated form</t>
-  </si>
-  <si>
-    <t>sysverb_update</t>
-  </si>
-  <si>
-    <t>click update button</t>
-  </si>
-  <si>
-    <t>Successfull</t>
-  </si>
-  <si>
-    <t>78 Milli Sec</t>
-  </si>
-  <si>
-    <t>83 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked on approval tab on RITM</t>
-  </si>
-  <si>
-    <t>.//*[@id='tabs2_list']/span[3]/span</t>
-  </si>
-  <si>
-    <t>Manager Approval</t>
-  </si>
-  <si>
-    <t>813 Milli Sec</t>
-  </si>
-  <si>
-    <t>49 Milli Sec</t>
-  </si>
-  <si>
-    <t>47 Milli Sec</t>
-  </si>
-  <si>
-    <t>sysapproval_approver.state</t>
-  </si>
-  <si>
-    <t>//form[@id='sysapproval_approver.do']/div/button</t>
-  </si>
-  <si>
-    <t>99 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked on Workflow in RITM Form</t>
-  </si>
-  <si>
-    <t>f590dc04c0a8016400eccedd5249fdb2</t>
-  </si>
-  <si>
-    <t>Show the workflow</t>
-  </si>
-  <si>
-    <t>Workflow clicked Successful</t>
-  </si>
-  <si>
-    <t>945 Milli Sec</t>
-  </si>
-  <si>
-    <t>5980 Sec</t>
-  </si>
-  <si>
-    <t>passed cmdb server list in filternavigator</t>
-  </si>
-  <si>
-    <t>cmdb_ci_server.list</t>
-  </si>
-  <si>
-    <t>pass cmdb server table in search navigator</t>
-  </si>
-  <si>
-    <t>Successfully passed and entered</t>
+    <t>850 Milli Sec</t>
+  </si>
+  <si>
+    <t>321 Milli Sec</t>
   </si>
   <si>
     <t>Error Occurred: Please Check the Logs</t>
   </si>
   <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>94 Milli Sec</t>
-  </si>
-  <si>
-    <t>103 Milli Sec</t>
-  </si>
-  <si>
-    <t>88 Milli Sec</t>
-  </si>
-  <si>
-    <t>62 Milli Sec</t>
-  </si>
-  <si>
-    <t>100 Milli Sec</t>
-  </si>
-  <si>
-    <t>46 Milli Sec</t>
+    <t>683</t>
+  </si>
+  <si>
+    <t>66 Milli Sec</t>
+  </si>
+  <si>
+    <t>130 Milli Sec</t>
   </si>
 </sst>
 </file>
@@ -1547,15 +1814,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
@@ -1927,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -1935,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="6">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1976,25 +2243,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="109">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="110">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="111">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="112">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="113">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="114">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="115">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2002,28 +2269,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="116">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2068,25 +2335,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="118">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="119">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="120">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="121">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="122">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="123">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="124">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2094,28 +2361,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="125">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2160,25 +2427,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="127">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="128">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="129">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="130">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="131">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="132">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="133">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2186,28 +2453,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="134">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2336,10 +2603,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2362,19 +2629,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="24">
         <v>27</v>
-      </c>
-      <c r="G5" t="s" s="23">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s" s="24">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -2388,19 +2655,19 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="26">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s" s="25">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s" s="26">
-        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -2414,19 +2681,19 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s" s="27">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="28">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -2440,19 +2707,19 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="29">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="30">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -2466,19 +2733,19 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="31">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="32">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -2492,19 +2759,19 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="33">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="34">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -2518,19 +2785,19 @@
         <v>13</v>
       </c>
       <c r="D11" t="s" s="40">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s" s="41">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="42">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="35">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="36">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2644,25 +2911,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="46">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="47">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="48">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="49">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="50">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="51">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="52">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2670,22 +2937,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H2"/>
     </row>
@@ -2694,22 +2961,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3"/>
     </row>
@@ -2718,22 +2985,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H4"/>
     </row>
@@ -2742,22 +3009,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5"/>
     </row>
@@ -2766,22 +3033,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H6"/>
     </row>
@@ -2790,22 +3057,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H7"/>
     </row>
@@ -2814,28 +3081,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="53">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -2880,25 +3147,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="55">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="56">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="57">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="58">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="59">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="60">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="61">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2906,22 +3173,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H2"/>
     </row>
@@ -2930,22 +3197,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3"/>
     </row>
@@ -2954,22 +3221,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H4"/>
     </row>
@@ -2978,22 +3245,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5"/>
     </row>
@@ -3002,22 +3269,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H6"/>
     </row>
@@ -3026,22 +3293,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H7"/>
     </row>
@@ -3050,22 +3317,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H8"/>
     </row>
@@ -3074,22 +3341,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H9"/>
     </row>
@@ -3098,22 +3365,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H10"/>
     </row>
@@ -3122,22 +3389,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H11"/>
     </row>
@@ -3146,22 +3413,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H12"/>
     </row>
@@ -3170,22 +3437,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H13"/>
     </row>
@@ -3194,22 +3461,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H14"/>
     </row>
@@ -3218,22 +3485,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H15"/>
     </row>
@@ -3242,22 +3509,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H16"/>
     </row>
@@ -3266,22 +3533,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H17"/>
     </row>
@@ -3290,22 +3557,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H18"/>
     </row>
@@ -3314,22 +3581,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H19"/>
     </row>
@@ -3338,22 +3605,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H20"/>
     </row>
@@ -3362,22 +3629,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H21"/>
     </row>
@@ -3386,22 +3653,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
         <v>155</v>
       </c>
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H22"/>
     </row>
@@ -3410,22 +3677,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H23"/>
     </row>
@@ -3434,22 +3701,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
         <v>160</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>161</v>
       </c>
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H24"/>
     </row>
@@ -3458,22 +3725,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H25"/>
     </row>
@@ -3482,22 +3749,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
         <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H26"/>
     </row>
@@ -3506,22 +3773,22 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H27"/>
     </row>
@@ -3530,22 +3797,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H28"/>
     </row>
@@ -3554,22 +3821,22 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H29"/>
     </row>
@@ -3578,22 +3845,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H30"/>
     </row>
@@ -3602,22 +3869,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
         <v>176</v>
       </c>
-      <c r="C31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" t="s">
-        <v>179</v>
-      </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H31"/>
     </row>
@@ -3626,22 +3893,22 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H32"/>
     </row>
@@ -3650,22 +3917,22 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H33"/>
     </row>
@@ -3674,22 +3941,22 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H34"/>
     </row>
@@ -3698,22 +3965,22 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H35"/>
     </row>
@@ -3722,22 +3989,22 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H36"/>
     </row>
@@ -3746,22 +4013,22 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H37"/>
     </row>
@@ -3770,22 +4037,22 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H38"/>
     </row>
@@ -3794,22 +4061,22 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
         <v>198</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
         <v>199</v>
       </c>
-      <c r="D39" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" t="s">
-        <v>201</v>
-      </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H39"/>
     </row>
@@ -3818,22 +4085,22 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H40"/>
     </row>
@@ -3842,22 +4109,22 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H41"/>
     </row>
@@ -3866,22 +4133,22 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H42"/>
     </row>
@@ -3890,22 +4157,22 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
         <v>206</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>207</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
         <v>208</v>
       </c>
-      <c r="E43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" t="s">
-        <v>209</v>
-      </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H43"/>
     </row>
@@ -3914,22 +4181,22 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H44"/>
     </row>
@@ -3938,22 +4205,22 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" t="s">
         <v>211</v>
       </c>
-      <c r="C45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" t="s">
-        <v>215</v>
-      </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H45"/>
     </row>
@@ -3962,22 +4229,22 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H46"/>
     </row>
@@ -3986,22 +4253,22 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H47"/>
     </row>
@@ -4010,22 +4277,22 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H48"/>
     </row>
@@ -4034,22 +4301,22 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H49"/>
     </row>
@@ -4058,22 +4325,22 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H50"/>
     </row>
@@ -4082,22 +4349,22 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H51"/>
     </row>
@@ -4106,22 +4373,22 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H52"/>
     </row>
@@ -4130,22 +4397,22 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H53"/>
     </row>
@@ -4154,22 +4421,22 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H54"/>
     </row>
@@ -4178,22 +4445,22 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H55"/>
     </row>
@@ -4202,22 +4469,22 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H56"/>
     </row>
@@ -4226,22 +4493,22 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
         <v>234</v>
       </c>
-      <c r="F57" t="s">
-        <v>235</v>
-      </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H57"/>
     </row>
@@ -4250,22 +4517,22 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H58"/>
     </row>
@@ -4274,43 +4541,187 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
         <v>237</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
         <v>238</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" t="s">
         <v>239</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
         <v>240</v>
       </c>
-      <c r="F59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="62">
-        <v>95</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
+      <c r="C63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="62">
+        <v>88</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A60"/>
+    <hyperlink location="'TestSuite'!A1" ref="A66"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4340,45 +4751,1581 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="64">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="65">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="66">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="67">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="68">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="69">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="71">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>279</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" t="s">
+        <v>280</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" t="s">
+        <v>250</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="71">
+        <v>88</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A2"/>
+    <hyperlink location="'TestSuite'!A1" ref="A66"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4387,7 +6334,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor indexed="10"/>
+    <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4408,25 +6355,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="73">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="74">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="75">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="76">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="77">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="78">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="79">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -4434,43 +6381,1555 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>299</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" t="s">
+        <v>300</v>
+      </c>
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" t="s">
         <v>241</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D63" t="s">
         <v>242</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="80">
-        <v>95</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="E63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" t="s">
+        <v>318</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="80">
+        <v>88</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+    <hyperlink location="'TestSuite'!A1" ref="A66"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4479,7 +7938,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor indexed="10"/>
+    <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4500,25 +7959,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="82">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="83">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="84">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="85">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="86">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="87">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="88">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -4526,43 +7985,715 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="89">
-        <v>95</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="89">
+        <v>88</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A31:H31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+    <hyperlink location="'TestSuite'!A1" ref="A31"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4571,7 +8702,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor indexed="10"/>
+    <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4592,69 +8723,45 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="91">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="92">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="93">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="94">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="95">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="96">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="97">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" t="s">
-        <v>242</v>
-      </c>
+      <c r="A2" t="s" s="98">
+        <v>88</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="98">
-        <v>95</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+    <hyperlink location="'TestSuite'!A1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4684,25 +8791,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="100">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="101">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="102">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s" s="103">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s" s="104">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="105">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s" s="106">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -4710,28 +8817,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="107">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
